--- a/files/startup_funding18.xlsx
+++ b/files/startup_funding18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EWamathai\Desktop\Indian Startup Ecosystem\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE5F84D-6165-4ADD-B4D3-5C61428A3FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23951645-A10F-4521-B210-C683F495F9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE04263A-D418-459F-A816-1BB9F5E76F59}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="932">
   <si>
     <t>Company Name</t>
   </si>
@@ -2880,15 +2880,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2906,54 +2898,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3278,8 +3222,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6441,6 +6385,9 @@
       <c r="B159" t="s">
         <v>367</v>
       </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
       <c r="D159" s="1">
         <v>2000000</v>
       </c>
@@ -10792,14 +10739,14 @@
   </sheetData>
   <autoFilter ref="A1:F378" xr:uid="{BA37EA99-A228-477E-8DEB-60B9527F62ED}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F378">
-      <sortCondition sortBy="cellColor" ref="C1:C378" dxfId="9"/>
+      <sortCondition sortBy="cellColor" ref="C1:C378" dxfId="2"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
